--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -104,6 +104,117 @@
     <t>https://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
   </si>
   <si>
+    <t>50325</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>12-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>IgA</t>
+  </si>
+  <si>
+    <t>11-44-2</t>
+  </si>
+  <si>
+    <t>IgG1 κ</t>
+  </si>
+  <si>
+    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+  </si>
+  <si>
+    <t>50324</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>51-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11-26c</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
+  </si>
+  <si>
+    <t>50321</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>BD Biosciences</t>
+  </si>
+  <si>
+    <t>553439 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>500 μg</t>
+  </si>
+  <si>
+    <t>$230.00</t>
+  </si>
+  <si>
+    <t>11-26c.2a</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>FITC Rat Anti-Mouse IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
+  </si>
+  <si>
+    <t>50320</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>550826 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 μg</t>
+  </si>
+  <si>
+    <t>$240.00</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>Polyclonal</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Ms Ig APC Poly 1270 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
+  </si>
+  <si>
     <t>50322</t>
   </si>
   <si>
@@ -116,265 +227,154 @@
     <t>$93.00</t>
   </si>
   <si>
-    <t>FITC</t>
-  </si>
-  <si>
     <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
   </si>
   <si>
     <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
   </si>
   <si>
+    <t>50326</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>11-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$94.00</t>
+  </si>
+  <si>
+    <t>IgE</t>
+  </si>
+  <si>
+    <t>23G3</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
+  </si>
+  <si>
+    <t>50327</t>
+  </si>
+  <si>
+    <t>12-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$109.00</t>
+  </si>
+  <si>
+    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
+  </si>
+  <si>
+    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
+  </si>
+  <si>
+    <t>50316</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>555791 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 Tests</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>Ig, k light chain</t>
+  </si>
+  <si>
+    <t>G20-193</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
+  </si>
+  <si>
+    <t>50318</t>
+  </si>
+  <si>
+    <t>555778 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$245.00</t>
+  </si>
+  <si>
+    <t>IA6-2</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
+  </si>
+  <si>
+    <t>50317</t>
+  </si>
+  <si>
+    <t>555792 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Ig Kappa Light Chain</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
+  </si>
+  <si>
+    <t>50328</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>11-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$82.75</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>eB121-15F9</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
+  </si>
+  <si>
     <t>50319</t>
   </si>
   <si>
     <t>(16)</t>
   </si>
   <si>
-    <t>BD Biosciences</t>
-  </si>
-  <si>
     <t>555779 (View supplier product page)</t>
   </si>
   <si>
-    <t>100 Tests</t>
-  </si>
-  <si>
     <t>$275.00</t>
   </si>
   <si>
-    <t>IA6-2</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>PE Mouse Anti-Human IgD</t>
   </si>
   <si>
-    <t>http://www.bdbiosciences.com/us/p/555779</t>
-  </si>
-  <si>
-    <t>50326</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>11-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$94.00</t>
-  </si>
-  <si>
-    <t>IgE</t>
-  </si>
-  <si>
-    <t>23G3</t>
-  </si>
-  <si>
-    <t>IgG1 κ</t>
-  </si>
-  <si>
-    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
-  </si>
-  <si>
-    <t>50316</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>555791 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>Ig, k light chain</t>
-  </si>
-  <si>
-    <t>G20-193</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
-  </si>
-  <si>
-    <t>50324</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>51-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11-26c</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 647</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
-  </si>
-  <si>
-    <t>50320</t>
-  </si>
-  <si>
-    <t>(30)</t>
-  </si>
-  <si>
-    <t>550826 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>100 μg</t>
-  </si>
-  <si>
-    <t>$240.00</t>
-  </si>
-  <si>
-    <t>Ig</t>
-  </si>
-  <si>
-    <t>Polyclonal</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>Ms Ig APC Poly 1270 100ug</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
-  </si>
-  <si>
-    <t>50328</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>11-5890-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$82.75</t>
-  </si>
-  <si>
-    <t>IgM</t>
-  </si>
-  <si>
-    <t>eB121-15F9</t>
-  </si>
-  <si>
-    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
-  </si>
-  <si>
-    <t>50327</t>
-  </si>
-  <si>
-    <t>12-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$109.00</t>
-  </si>
-  <si>
-    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
-  </si>
-  <si>
-    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
-  </si>
-  <si>
-    <t>50325</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>12-5994-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$115.00</t>
-  </si>
-  <si>
-    <t>IgA</t>
-  </si>
-  <si>
-    <t>11-44-2</t>
-  </si>
-  <si>
-    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
-  </si>
-  <si>
-    <t>50318</t>
-  </si>
-  <si>
-    <t>555778 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$245.00</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
-  </si>
-  <si>
-    <t>50317</t>
-  </si>
-  <si>
-    <t>555792 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>Ig Kappa Light Chain</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
-  </si>
-  <si>
-    <t>50321</t>
-  </si>
-  <si>
-    <t>(19)</t>
-  </si>
-  <si>
-    <t>553439 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>500 μg</t>
-  </si>
-  <si>
-    <t>$230.00</t>
-  </si>
-  <si>
-    <t>11-26c.2a</t>
-  </si>
-  <si>
-    <t>FITC Rat Anti-Mouse IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
   </si>
 </sst>
 </file>
@@ -539,19 +539,19 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -560,27 +560,27 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -592,48 +592,48 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -642,10 +642,10 @@
         <v>23</v>
       </c>
       <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -668,69 +668,69 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -739,101 +739,101 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>80</v>
-      </c>
-      <c r="O8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -842,236 +842,236 @@
         <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>92</v>
       </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
       </c>
       <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>99</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>101</v>
-      </c>
-      <c r="O11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
         <v>105</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>106</v>
-      </c>
-      <c r="O12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
         <v>108</v>
       </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
         <v>53</v>
       </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
         <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s">
         <v>27</v>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -59,97 +59,280 @@
     <t>View Supplier Product Link</t>
   </si>
   <si>
+    <t>50324</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>eBioscience (Thermo Fisher Scientific)</t>
+  </si>
+  <si>
+    <t>51-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 μg</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IgD</t>
+  </si>
+  <si>
+    <t>11-26c</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>IgG2a κ</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
+  </si>
+  <si>
+    <t>50325</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>12-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>IgA</t>
+  </si>
+  <si>
+    <t>11-44-2</t>
+  </si>
+  <si>
+    <t>IgG1 κ</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+  </si>
+  <si>
     <t>50323</t>
   </si>
   <si>
     <t>(10)</t>
   </si>
   <si>
-    <t>eBioscience (Thermo Fisher Scientific)</t>
-  </si>
-  <si>
     <t>12-5993-81 (View supplier product page)</t>
   </si>
   <si>
-    <t>50 μg</t>
-  </si>
-  <si>
     <t>$104.00</t>
   </si>
   <si>
-    <t>IgD</t>
-  </si>
-  <si>
     <t>11-26c (11-26)</t>
   </si>
   <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>IgG2a κ</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), PE, eBioscience™</t>
   </si>
   <si>
     <t>https://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
   </si>
   <si>
-    <t>50325</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>12-5994-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$115.00</t>
-  </si>
-  <si>
-    <t>IgA</t>
-  </si>
-  <si>
-    <t>11-44-2</t>
-  </si>
-  <si>
-    <t>IgG1 κ</t>
-  </si>
-  <si>
-    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
-  </si>
-  <si>
-    <t>50324</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>51-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11-26c</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 647</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
+    <t>50322</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>11-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$93.00</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
+  </si>
+  <si>
+    <t>50327</t>
+  </si>
+  <si>
+    <t>12-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$109.00</t>
+  </si>
+  <si>
+    <t>IgE</t>
+  </si>
+  <si>
+    <t>23G3</t>
+  </si>
+  <si>
+    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
+  </si>
+  <si>
+    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
+  </si>
+  <si>
+    <t>50326</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>11-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$94.00</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
+  </si>
+  <si>
+    <t>50328</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>11-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$82.75</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>eB121-15F9</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
+  </si>
+  <si>
+    <t>50317</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>BD Biosciences</t>
+  </si>
+  <si>
+    <t>555792 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 Tests</t>
+  </si>
+  <si>
+    <t>$245.00</t>
+  </si>
+  <si>
+    <t>Ig Kappa Light Chain</t>
+  </si>
+  <si>
+    <t>G20-193</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
+  </si>
+  <si>
+    <t>50320</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>550826 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 μg</t>
+  </si>
+  <si>
+    <t>$240.00</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>Polyclonal</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Ms Ig APC Poly 1270 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
+  </si>
+  <si>
+    <t>50319</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>555779 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t>IA6-2</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
+  </si>
+  <si>
+    <t>50318</t>
+  </si>
+  <si>
+    <t>555778 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
   </si>
   <si>
     <t>50321</t>
@@ -158,9 +341,6 @@
     <t>(19)</t>
   </si>
   <si>
-    <t>BD Biosciences</t>
-  </si>
-  <si>
     <t>553439 (View supplier product page)</t>
   </si>
   <si>
@@ -173,208 +353,28 @@
     <t>11-26c.2a</t>
   </si>
   <si>
-    <t>FITC</t>
-  </si>
-  <si>
     <t>FITC Rat Anti-Mouse IgD</t>
   </si>
   <si>
     <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
   </si>
   <si>
-    <t>50320</t>
-  </si>
-  <si>
-    <t>(30)</t>
-  </si>
-  <si>
-    <t>550826 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>100 μg</t>
-  </si>
-  <si>
-    <t>$240.00</t>
-  </si>
-  <si>
-    <t>Ig</t>
-  </si>
-  <si>
-    <t>Polyclonal</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>Ms Ig APC Poly 1270 100ug</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
-  </si>
-  <si>
-    <t>50322</t>
-  </si>
-  <si>
-    <t>(27)</t>
-  </si>
-  <si>
-    <t>11-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$93.00</t>
-  </si>
-  <si>
-    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
-  </si>
-  <si>
-    <t>50326</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>11-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$94.00</t>
-  </si>
-  <si>
-    <t>IgE</t>
-  </si>
-  <si>
-    <t>23G3</t>
-  </si>
-  <si>
-    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
-  </si>
-  <si>
-    <t>50327</t>
-  </si>
-  <si>
-    <t>12-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$109.00</t>
-  </si>
-  <si>
-    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
-  </si>
-  <si>
-    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
-  </si>
-  <si>
     <t>50316</t>
   </si>
   <si>
-    <t>(1)</t>
-  </si>
-  <si>
     <t>555791 (View supplier product page)</t>
   </si>
   <si>
-    <t>100 Tests</t>
-  </si>
-  <si>
     <t>$200.00</t>
   </si>
   <si>
     <t>Ig, k light chain</t>
   </si>
   <si>
-    <t>G20-193</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
   </si>
   <si>
     <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
-  </si>
-  <si>
-    <t>50318</t>
-  </si>
-  <si>
-    <t>555778 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$245.00</t>
-  </si>
-  <si>
-    <t>IA6-2</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
-  </si>
-  <si>
-    <t>50317</t>
-  </si>
-  <si>
-    <t>555792 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>Ig Kappa Light Chain</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
-  </si>
-  <si>
-    <t>50328</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>11-5890-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$82.75</t>
-  </si>
-  <si>
-    <t>IgM</t>
-  </si>
-  <si>
-    <t>eB121-15F9</t>
-  </si>
-  <si>
-    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
-  </si>
-  <si>
-    <t>50319</t>
-  </si>
-  <si>
-    <t>(16)</t>
-  </si>
-  <si>
-    <t>555779 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$275.00</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
   </si>
 </sst>
 </file>
@@ -510,54 +510,54 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
@@ -598,16 +598,16 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -621,22 +621,22 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -645,248 +645,248 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="O6" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>88</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>89</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>91</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>92</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
         <v>94</v>
@@ -900,25 +900,25 @@
         <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -927,60 +927,60 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
         <v>105</v>
@@ -997,19 +997,19 @@
         <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>112</v>
@@ -1021,13 +1021,13 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
         <v>113</v>
@@ -1041,40 +1041,40 @@
         <v>115</v>
       </c>
       <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
         <v>119</v>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -59,76 +59,160 @@
     <t>View Supplier Product Link</t>
   </si>
   <si>
+    <t>50322</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>eBioscience (Thermo Fisher Scientific)</t>
+  </si>
+  <si>
+    <t>11-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 μg</t>
+  </si>
+  <si>
+    <t>$93.00</t>
+  </si>
+  <si>
+    <t>IgD</t>
+  </si>
+  <si>
+    <t>11-26c (11-26)</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>IgG2a κ</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
+  </si>
+  <si>
+    <t>50325</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>12-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>IgA</t>
+  </si>
+  <si>
+    <t>11-44-2</t>
+  </si>
+  <si>
+    <t>IgG1 κ</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+  </si>
+  <si>
+    <t>50318</t>
+  </si>
+  <si>
+    <t>BD Biosciences</t>
+  </si>
+  <si>
+    <t>555778 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 Tests</t>
+  </si>
+  <si>
+    <t>$245.00</t>
+  </si>
+  <si>
+    <t>IA6-2</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
+  </si>
+  <si>
     <t>50324</t>
   </si>
   <si>
     <t>Not Available</t>
   </si>
   <si>
-    <t>eBioscience (Thermo Fisher Scientific)</t>
-  </si>
-  <si>
     <t>51-5993-81 (View supplier product page)</t>
   </si>
   <si>
-    <t>50 μg</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>IgD</t>
-  </si>
-  <si>
     <t>11-26c</t>
   </si>
   <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>IgG2a κ</t>
-  </si>
-  <si>
     <t>Alexa Fluor 647</t>
   </si>
   <si>
-    <t>Mouse</t>
-  </si>
-  <si>
     <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
   </si>
   <si>
-    <t>50325</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>12-5994-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$115.00</t>
-  </si>
-  <si>
-    <t>IgA</t>
-  </si>
-  <si>
-    <t>11-44-2</t>
-  </si>
-  <si>
-    <t>IgG1 κ</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+    <t>50320</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>550826 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 μg</t>
+  </si>
+  <si>
+    <t>$240.00</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>Polyclonal</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Ms Ig APC Poly 1270 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
   </si>
   <si>
     <t>50323</t>
@@ -143,34 +227,139 @@
     <t>$104.00</t>
   </si>
   <si>
-    <t>11-26c (11-26)</t>
-  </si>
-  <si>
     <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), PE, eBioscience™</t>
   </si>
   <si>
     <t>https://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
   </si>
   <si>
-    <t>50322</t>
-  </si>
-  <si>
-    <t>(27)</t>
-  </si>
-  <si>
-    <t>11-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$93.00</t>
-  </si>
-  <si>
-    <t>FITC</t>
-  </si>
-  <si>
-    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
+    <t>50328</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>11-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$82.75</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>eB121-15F9</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
+  </si>
+  <si>
+    <t>50319</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>555779 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
+  </si>
+  <si>
+    <t>50317</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>555792 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Ig Kappa Light Chain</t>
+  </si>
+  <si>
+    <t>G20-193</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
+  </si>
+  <si>
+    <t>50326</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>11-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$94.00</t>
+  </si>
+  <si>
+    <t>IgE</t>
+  </si>
+  <si>
+    <t>23G3</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
+  </si>
+  <si>
+    <t>50316</t>
+  </si>
+  <si>
+    <t>555791 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>Ig, k light chain</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
+  </si>
+  <si>
+    <t>50321</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>553439 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>500 μg</t>
+  </si>
+  <si>
+    <t>$230.00</t>
+  </si>
+  <si>
+    <t>11-26c.2a</t>
+  </si>
+  <si>
+    <t>FITC Rat Anti-Mouse IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
   </si>
   <si>
     <t>50327</t>
@@ -182,199 +371,10 @@
     <t>$109.00</t>
   </si>
   <si>
-    <t>IgE</t>
-  </si>
-  <si>
-    <t>23G3</t>
-  </si>
-  <si>
     <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
   </si>
   <si>
     <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
-  </si>
-  <si>
-    <t>50326</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>11-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$94.00</t>
-  </si>
-  <si>
-    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
-  </si>
-  <si>
-    <t>50328</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>11-5890-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$82.75</t>
-  </si>
-  <si>
-    <t>IgM</t>
-  </si>
-  <si>
-    <t>eB121-15F9</t>
-  </si>
-  <si>
-    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
-  </si>
-  <si>
-    <t>50317</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>BD Biosciences</t>
-  </si>
-  <si>
-    <t>555792 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>100 Tests</t>
-  </si>
-  <si>
-    <t>$245.00</t>
-  </si>
-  <si>
-    <t>Ig Kappa Light Chain</t>
-  </si>
-  <si>
-    <t>G20-193</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
-  </si>
-  <si>
-    <t>50320</t>
-  </si>
-  <si>
-    <t>(30)</t>
-  </si>
-  <si>
-    <t>550826 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>100 μg</t>
-  </si>
-  <si>
-    <t>$240.00</t>
-  </si>
-  <si>
-    <t>Ig</t>
-  </si>
-  <si>
-    <t>Polyclonal</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>Ms Ig APC Poly 1270 100ug</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
-  </si>
-  <si>
-    <t>50319</t>
-  </si>
-  <si>
-    <t>(16)</t>
-  </si>
-  <si>
-    <t>555779 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$275.00</t>
-  </si>
-  <si>
-    <t>IA6-2</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
-  </si>
-  <si>
-    <t>50318</t>
-  </si>
-  <si>
-    <t>555778 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
-  </si>
-  <si>
-    <t>50321</t>
-  </si>
-  <si>
-    <t>(19)</t>
-  </si>
-  <si>
-    <t>553439 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>500 μg</t>
-  </si>
-  <si>
-    <t>$230.00</t>
-  </si>
-  <si>
-    <t>11-26c.2a</t>
-  </si>
-  <si>
-    <t>FITC Rat Anti-Mouse IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
-  </si>
-  <si>
-    <t>50316</t>
-  </si>
-  <si>
-    <t>555791 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>Ig, k light chain</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
   </si>
 </sst>
 </file>
@@ -510,133 +510,133 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -645,139 +645,139 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -786,86 +786,86 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
@@ -874,145 +874,145 @@
         <v>91</v>
       </c>
       <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>93</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>101</v>
-      </c>
-      <c r="O11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -1021,60 +1021,60 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N14" t="s">
         <v>119</v>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -59,45 +59,93 @@
     <t>View Supplier Product Link</t>
   </si>
   <si>
+    <t>50324</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>eBioscience (Thermo Fisher Scientific)</t>
+  </si>
+  <si>
+    <t>51-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 μg</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IgD</t>
+  </si>
+  <si>
+    <t>11-26c</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>IgG2a κ</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
+  </si>
+  <si>
+    <t>50318</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>BD Biosciences</t>
+  </si>
+  <si>
+    <t>555778 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 Tests</t>
+  </si>
+  <si>
+    <t>$245.00</t>
+  </si>
+  <si>
+    <t>IA6-2</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
+  </si>
+  <si>
     <t>50322</t>
   </si>
   <si>
-    <t>(27)</t>
-  </si>
-  <si>
-    <t>eBioscience (Thermo Fisher Scientific)</t>
-  </si>
-  <si>
     <t>11-5993-81 (View supplier product page)</t>
   </si>
   <si>
-    <t>50 μg</t>
-  </si>
-  <si>
     <t>$93.00</t>
   </si>
   <si>
-    <t>IgD</t>
-  </si>
-  <si>
     <t>11-26c (11-26)</t>
   </si>
   <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>IgG2a κ</t>
-  </si>
-  <si>
-    <t>FITC</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
   </si>
   <si>
@@ -134,52 +182,142 @@
     <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
   </si>
   <si>
-    <t>50318</t>
-  </si>
-  <si>
-    <t>BD Biosciences</t>
-  </si>
-  <si>
-    <t>555778 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>100 Tests</t>
-  </si>
-  <si>
-    <t>$245.00</t>
-  </si>
-  <si>
-    <t>IA6-2</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
-  </si>
-  <si>
-    <t>50324</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>51-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11-26c</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 647</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
+    <t>50323</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>12-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$104.00</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
+  </si>
+  <si>
+    <t>50326</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>11-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$94.00</t>
+  </si>
+  <si>
+    <t>IgE</t>
+  </si>
+  <si>
+    <t>23G3</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
+  </si>
+  <si>
+    <t>50327</t>
+  </si>
+  <si>
+    <t>12-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$109.00</t>
+  </si>
+  <si>
+    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
+  </si>
+  <si>
+    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
+  </si>
+  <si>
+    <t>50317</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>555792 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Ig Kappa Light Chain</t>
+  </si>
+  <si>
+    <t>G20-193</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
+  </si>
+  <si>
+    <t>50319</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>555779 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
+  </si>
+  <si>
+    <t>50316</t>
+  </si>
+  <si>
+    <t>555791 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>Ig, k light chain</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
+  </si>
+  <si>
+    <t>50328</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>11-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$82.75</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>eB121-15F9</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
   </si>
   <si>
     <t>50320</t>
@@ -215,129 +353,6 @@
     <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
   </si>
   <si>
-    <t>50323</t>
-  </si>
-  <si>
-    <t>(10)</t>
-  </si>
-  <si>
-    <t>12-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$104.00</t>
-  </si>
-  <si>
-    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
-  </si>
-  <si>
-    <t>50328</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>11-5890-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$82.75</t>
-  </si>
-  <si>
-    <t>IgM</t>
-  </si>
-  <si>
-    <t>eB121-15F9</t>
-  </si>
-  <si>
-    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
-  </si>
-  <si>
-    <t>50319</t>
-  </si>
-  <si>
-    <t>(16)</t>
-  </si>
-  <si>
-    <t>555779 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$275.00</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
-  </si>
-  <si>
-    <t>50317</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>555792 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>Ig Kappa Light Chain</t>
-  </si>
-  <si>
-    <t>G20-193</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
-  </si>
-  <si>
-    <t>50326</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>11-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$94.00</t>
-  </si>
-  <si>
-    <t>IgE</t>
-  </si>
-  <si>
-    <t>23G3</t>
-  </si>
-  <si>
-    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
-  </si>
-  <si>
-    <t>50316</t>
-  </si>
-  <si>
-    <t>555791 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>Ig, k light chain</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
-  </si>
-  <si>
     <t>50321</t>
   </si>
   <si>
@@ -360,21 +375,6 @@
   </si>
   <si>
     <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
-  </si>
-  <si>
-    <t>50327</t>
-  </si>
-  <si>
-    <t>12-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$109.00</t>
-  </si>
-  <si>
-    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
-  </si>
-  <si>
-    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
   </si>
 </sst>
 </file>
@@ -510,54 +510,54 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -571,90 +571,90 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
         <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
       </c>
       <c r="O5" t="s">
         <v>55</v>
@@ -668,413 +668,413 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
         <v>60</v>
       </c>
-      <c r="G6" t="s">
+      <c r="O6" t="s">
         <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
         <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
         <v>36</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
         <v>108</v>
       </c>
-      <c r="B13" t="s">
+      <c r="I13" t="s">
         <v>109</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
         <v>110</v>
       </c>
-      <c r="E13" t="s">
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
+      <c r="O13" t="s">
         <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
         <v>118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
         <v>119</v>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="305">
   <si>
     <t>ID Number</t>
   </si>
@@ -59,135 +59,786 @@
     <t>View Supplier Product Link</t>
   </si>
   <si>
+    <t>50322</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>eBioscience (Thermo Fisher Scientific)</t>
+  </si>
+  <si>
+    <t>11-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 μg</t>
+  </si>
+  <si>
+    <t>$93.00</t>
+  </si>
+  <si>
+    <t>IgD</t>
+  </si>
+  <si>
+    <t>11-26c (11-26)</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>IgG2a κ</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
+  </si>
+  <si>
+    <t>50325</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>12-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>IgA</t>
+  </si>
+  <si>
+    <t>11-44-2</t>
+  </si>
+  <si>
+    <t>IgG1 κ</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+  </si>
+  <si>
     <t>50324</t>
   </si>
   <si>
     <t>Not Available</t>
   </si>
   <si>
-    <t>eBioscience (Thermo Fisher Scientific)</t>
-  </si>
-  <si>
     <t>51-5993-81 (View supplier product page)</t>
   </si>
   <si>
-    <t>50 μg</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>IgD</t>
-  </si>
-  <si>
     <t>11-26c</t>
   </si>
   <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>IgG2a κ</t>
-  </si>
-  <si>
     <t>Alexa Fluor 647</t>
   </si>
   <si>
-    <t>Mouse</t>
-  </si>
-  <si>
     <t>https://www.thermofisher.com/us/en/home/life-science/antibodies/ebioscience.html</t>
   </si>
   <si>
+    <t>50320</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>BD Biosciences</t>
+  </si>
+  <si>
+    <t>550826 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 μg</t>
+  </si>
+  <si>
+    <t>$240.00</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>Polyclonal</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Ms Ig APC Poly 1270 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
+  </si>
+  <si>
+    <t>50327</t>
+  </si>
+  <si>
+    <t>12-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$109.00</t>
+  </si>
+  <si>
+    <t>IgE</t>
+  </si>
+  <si>
+    <t>23G3</t>
+  </si>
+  <si>
+    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
+  </si>
+  <si>
+    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
+  </si>
+  <si>
+    <t>50319</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>555779 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>100 Tests</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t>IA6-2</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
+  </si>
+  <si>
+    <t>50326</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>11-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$94.00</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
+  </si>
+  <si>
+    <t>50328</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>11-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$82.75</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>eB121-15F9</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
+  </si>
+  <si>
+    <t>50329</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>12-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$103.00</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/12-5890-81.html?CID=AFLFF-12-5890-81</t>
+  </si>
+  <si>
+    <t>50330</t>
+  </si>
+  <si>
+    <t>11-411-85 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>500 μg</t>
+  </si>
+  <si>
+    <t>IgG</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Hamster</t>
+  </si>
+  <si>
     <t>50318</t>
   </si>
   <si>
-    <t>(27)</t>
-  </si>
-  <si>
-    <t>BD Biosciences</t>
-  </si>
-  <si>
     <t>555778 (View supplier product page)</t>
   </si>
   <si>
-    <t>100 Tests</t>
-  </si>
-  <si>
     <t>$245.00</t>
   </si>
   <si>
-    <t>IA6-2</t>
-  </si>
-  <si>
-    <t>FITC</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>FITC Mouse Anti-Human IgD</t>
   </si>
   <si>
     <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-igd.555778</t>
   </si>
   <si>
-    <t>50322</t>
-  </si>
-  <si>
-    <t>11-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$93.00</t>
-  </si>
-  <si>
-    <t>11-26c (11-26)</t>
-  </si>
-  <si>
-    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
-  </si>
-  <si>
-    <t>50325</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>12-5994-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$115.00</t>
-  </si>
-  <si>
-    <t>IgA</t>
-  </si>
-  <si>
-    <t>11-44-2</t>
-  </si>
-  <si>
-    <t>IgG1 κ</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+    <t>50332</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>11-4811-85 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$158.00</t>
+  </si>
+  <si>
+    <t>FC, ICC, IF</t>
+  </si>
+  <si>
+    <t>Mouse anti-Rat IgG Secondary Antibody, FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-4811-85.html?CID=AFLFF-11-4811-85</t>
+  </si>
+  <si>
+    <t>50333</t>
+  </si>
+  <si>
+    <t>554057 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>Avidin</t>
+  </si>
+  <si>
+    <t>All Species</t>
+  </si>
+  <si>
+    <t>Avidin-FITC 500ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554057.pdf</t>
+  </si>
+  <si>
+    <t>50331</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>11-4011-85 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$169.00</t>
+  </si>
+  <si>
+    <t>Rat anti-Mouse IgG Secondary Antibody, FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/11-4011-85.html?CID=AFLFF-11-4011-85</t>
+  </si>
+  <si>
+    <t>50335</t>
+  </si>
+  <si>
+    <t>554067 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$125.00</t>
+  </si>
+  <si>
+    <t>Streptavidin</t>
+  </si>
+  <si>
+    <t>Streptavidin-APC 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554067.pdf</t>
+  </si>
+  <si>
+    <t>50334</t>
+  </si>
+  <si>
+    <t>349011 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>500 Tests</t>
+  </si>
+  <si>
+    <t>$131.00</t>
+  </si>
+  <si>
+    <t>IF, FC</t>
+  </si>
+  <si>
+    <t>Avidin FITC 500 Tests RUO/GMP</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/is/tds/23-1666.pdf</t>
+  </si>
+  <si>
+    <t>50336</t>
+  </si>
+  <si>
+    <t>349024 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$354.00</t>
+  </si>
+  <si>
+    <t>Streptavidin APC 100 Tests RUO/GMP</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/is/tds/23-1417.pdf</t>
+  </si>
+  <si>
+    <t>50337</t>
+  </si>
+  <si>
+    <t>554063 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$190.00</t>
+  </si>
+  <si>
+    <t>APC-Cy7</t>
+  </si>
+  <si>
+    <t>Streptavidin-APC-Cy7 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554063.pdf</t>
+  </si>
+  <si>
+    <t>50317</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>555792 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Ig Kappa Light Chain</t>
+  </si>
+  <si>
+    <t>G20-193</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
+  </si>
+  <si>
+    <t>50339</t>
+  </si>
+  <si>
+    <t>554060 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Streptavidin-FITC 500ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554060.pdf</t>
+  </si>
+  <si>
+    <t>50338</t>
+  </si>
+  <si>
+    <t>560797 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>V450</t>
+  </si>
+  <si>
+    <t>Streptavidin Horizon V450 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/560797.pdf</t>
+  </si>
+  <si>
+    <t>50316</t>
+  </si>
+  <si>
+    <t>555791 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>Ig, k light chain</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
+  </si>
+  <si>
+    <t>50341</t>
+  </si>
+  <si>
+    <t>340130 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 Tests</t>
+  </si>
+  <si>
+    <t>$157.00</t>
+  </si>
+  <si>
+    <t>PerCP</t>
+  </si>
+  <si>
+    <t>Streptavidin PerCP 50 Tests RUO/GMP</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/is/tds/23-2501.pdf</t>
+  </si>
+  <si>
+    <t>50340</t>
+  </si>
+  <si>
+    <t>554064 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$290.00</t>
+  </si>
+  <si>
+    <t>Streptavidin-PerCP 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554064.pdf</t>
+  </si>
+  <si>
+    <t>50342</t>
+  </si>
+  <si>
+    <t>551419 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$265.00</t>
+  </si>
+  <si>
+    <t>PerCP-Cy5.5</t>
+  </si>
+  <si>
+    <t>Streptavidin PerCP-Cy5.5 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/551419.pdf</t>
+  </si>
+  <si>
+    <t>50321</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>553439 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$230.00</t>
+  </si>
+  <si>
+    <t>11-26c.2a</t>
+  </si>
+  <si>
+    <t>FITC Rat Anti-Mouse IgD</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
+  </si>
+  <si>
+    <t>50347</t>
+  </si>
+  <si>
+    <t>551487 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Texas Red</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/external_files/pm/doc/tds/ig_2step/live/web_enabled/1303RA_551487.pdf</t>
+  </si>
+  <si>
+    <t>50346</t>
+  </si>
+  <si>
+    <t>(32)</t>
+  </si>
+  <si>
+    <t>557598 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Cy7</t>
+  </si>
+  <si>
+    <t>Streptavidin-PE-Cy7 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/557598.pdf</t>
+  </si>
+  <si>
+    <t>50345</t>
+  </si>
+  <si>
+    <t>554062 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$140.00</t>
+  </si>
+  <si>
+    <t>PE-Cy5</t>
+  </si>
+  <si>
+    <t>Streptavidin-PE-Cy5 100ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554062.pdf</t>
+  </si>
+  <si>
+    <t>50349</t>
+  </si>
+  <si>
+    <t>12-4317-87 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>250 μg</t>
+  </si>
+  <si>
+    <t>$79.00</t>
+  </si>
+  <si>
+    <t>The streptavidin fluorochrome conjugates are commonly used in indirect staining protocols to detect biotinylated primary antibodies in flow cytometry. Streptavidin binds to biotin with high affinity.</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/12-4317-87</t>
+  </si>
+  <si>
+    <t>50343</t>
+  </si>
+  <si>
+    <t>349023 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$268.00</t>
+  </si>
+  <si>
+    <t>Streptavidin PE 100 Tests RUO/GMP</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/is/tds/23-1665.pdf</t>
+  </si>
+  <si>
+    <t>50350</t>
+  </si>
+  <si>
+    <t>15-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$129.00</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/15-4317-82</t>
+  </si>
+  <si>
+    <t>50348</t>
+  </si>
+  <si>
+    <t>11-4317-87 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$69.00</t>
+  </si>
+  <si>
+    <t>FC, ICC</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/11-4317-87</t>
+  </si>
+  <si>
+    <t>50357</t>
+  </si>
+  <si>
+    <t>50344</t>
+  </si>
+  <si>
+    <t>554061 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Streptavidin-PE 500ug</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/ds/pm/tds/554061.pdf</t>
+  </si>
+  <si>
+    <t>50351</t>
+  </si>
+  <si>
+    <t>17-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$119.00</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/17-4317-82</t>
+  </si>
+  <si>
+    <t>50359</t>
+  </si>
+  <si>
+    <t>50352</t>
+  </si>
+  <si>
+    <t>19-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Cy5</t>
+  </si>
+  <si>
+    <t>50356</t>
+  </si>
+  <si>
+    <t>13-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$72.75</t>
+  </si>
+  <si>
+    <t>Biotin</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), Biotin, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/13-5890-81.html?CID=AFLFF-13-5890-81</t>
+  </si>
+  <si>
+    <t>50353</t>
+  </si>
+  <si>
+    <t>25-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$229.00</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/25-4317-82</t>
+  </si>
+  <si>
+    <t>50355</t>
+  </si>
+  <si>
+    <t>45-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$249.00</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/45-4317-80</t>
+  </si>
+  <si>
+    <t>50361</t>
+  </si>
+  <si>
+    <t>50358</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>13-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), Biotin, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/13-5993-81.html?CID=AFLFF-13-5993-81</t>
+  </si>
+  <si>
+    <t>50354</t>
+  </si>
+  <si>
+    <t>35-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Cy5.5</t>
+  </si>
+  <si>
+    <t>50363</t>
+  </si>
+  <si>
+    <t>50360</t>
+  </si>
+  <si>
+    <t>13-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>The 11-44-2 monoclonal antibody reacts with the alpha heavy chain of mouse IgA. It does not react with other classes of mouse immunoglobulin including IgD, IgG or IgM. IgA is expressed as a membrane-bound form as well as a soluble dimer. Fluorochrome con - -</t>
+  </si>
+  <si>
+    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4f7adee1d451f98b094388c4d640a5dffb91aae1f90a6603</t>
   </si>
   <si>
     <t>50323</t>
   </si>
   <si>
-    <t>(10)</t>
-  </si>
-  <si>
     <t>12-5993-81 (View supplier product page)</t>
   </si>
   <si>
@@ -200,181 +851,82 @@
     <t>https://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
   </si>
   <si>
-    <t>50326</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>11-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$94.00</t>
-  </si>
-  <si>
-    <t>IgE</t>
-  </si>
-  <si>
-    <t>23G3</t>
-  </si>
-  <si>
-    <t>Mouse IgE Monoclonal Antibody (23G3), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5992-81.html?CID=AFLFF-11-5992-81</t>
-  </si>
-  <si>
-    <t>50327</t>
-  </si>
-  <si>
-    <t>12-5992-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$109.00</t>
-  </si>
-  <si>
-    <t>The 23G3 monoclonal antibody reacts with the epsilon heavy chain of mouse IgE. It does not react with other classes of mouse immunoglobulin including IgD, IgG, IgA, or IgM. - -</t>
-  </si>
-  <si>
-    <t>https://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
-  </si>
-  <si>
-    <t>50317</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>555792 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>Ig Kappa Light Chain</t>
-  </si>
-  <si>
-    <t>G20-193</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human Ig kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-ig-light-chain.555792</t>
-  </si>
-  <si>
-    <t>50319</t>
-  </si>
-  <si>
-    <t>(16)</t>
-  </si>
-  <si>
-    <t>555779 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$275.00</t>
-  </si>
-  <si>
-    <t>PE Mouse Anti-Human IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-human-igd.555779</t>
-  </si>
-  <si>
-    <t>50316</t>
-  </si>
-  <si>
-    <t>555791 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>Ig, k light chain</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-human-ig-light-chain.555791</t>
-  </si>
-  <si>
-    <t>50328</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>11-5890-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$82.75</t>
-  </si>
-  <si>
-    <t>IgM</t>
-  </si>
-  <si>
-    <t>eB121-15F9</t>
-  </si>
-  <si>
-    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>https://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
-  </si>
-  <si>
-    <t>50320</t>
-  </si>
-  <si>
-    <t>(30)</t>
-  </si>
-  <si>
-    <t>550826 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>100 μg</t>
-  </si>
-  <si>
-    <t>$240.00</t>
-  </si>
-  <si>
-    <t>Ig</t>
-  </si>
-  <si>
-    <t>Polyclonal</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>Ms Ig APC Poly 1270 100ug</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-goat-anti-mouse-ig-multiple-adsorption.550826</t>
-  </si>
-  <si>
-    <t>50321</t>
-  </si>
-  <si>
-    <t>(19)</t>
-  </si>
-  <si>
-    <t>553439 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>500 μg</t>
-  </si>
-  <si>
-    <t>$230.00</t>
-  </si>
-  <si>
-    <t>11-26c.2a</t>
-  </si>
-  <si>
-    <t>FITC Rat Anti-Mouse IgD</t>
-  </si>
-  <si>
-    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-rat-anti-mouse-igd.553439</t>
+    <t>50362</t>
+  </si>
+  <si>
+    <t>13-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$92.75</t>
+  </si>
+  <si>
+    <t>FC, ELISA</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), Biotin, eBioscience™</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/antibody/product/13-5992-81.html?CID=AFLFF-13-5992-81</t>
+  </si>
+  <si>
+    <t>50364</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>557354 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$300.00</t>
+  </si>
+  <si>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>1F4</t>
+  </si>
+  <si>
+    <t>IgM κ</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Rat CD3</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/fitc-mouse-anti-rat-cd3.557354</t>
+  </si>
+  <si>
+    <t>50365</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>550353 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$165.00</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Rat CD3</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/pe-mouse-anti-rat-cd3.550353</t>
+  </si>
+  <si>
+    <t>50366</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>557030 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>APC Mouse Anti-Rat CD3</t>
+  </si>
+  <si>
+    <t>https://www.bdbiosciences.com/en-us/products/reagents/flow-cytometry-reagents/research-reagents/single-color-antibodies-ruo/apc-mouse-anti-rat-cd3.557030</t>
   </si>
 </sst>
 </file>
@@ -419,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -510,54 +1062,54 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -571,25 +1123,25 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -598,436 +1150,436 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
         <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
       </c>
       <c r="N13" t="s">
         <v>111</v>
@@ -1041,46 +1593,1832 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>114</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
         <v>115</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
         <v>117</v>
       </c>
-      <c r="G14" t="s">
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J27" t="s">
         <v>24</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" t="s">
+        <v>231</v>
+      </c>
+      <c r="N34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L39" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>217</v>
+      </c>
+      <c r="O39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>250</v>
+      </c>
+      <c r="O40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>217</v>
+      </c>
+      <c r="O41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" t="s">
+        <v>187</v>
+      </c>
+      <c r="L42" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>217</v>
+      </c>
+      <c r="O42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>249</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>264</v>
+      </c>
+      <c r="O44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
+        <v>268</v>
+      </c>
+      <c r="L45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" t="s">
+        <v>249</v>
+      </c>
+      <c r="L47" t="s">
         <v>26</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>272</v>
+      </c>
+      <c r="O47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
         <v>37</v>
       </c>
-      <c r="N14" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" t="s">
-        <v>120</v>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>277</v>
+      </c>
+      <c r="O48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" t="s">
+        <v>249</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>282</v>
+      </c>
+      <c r="N49" t="s">
+        <v>283</v>
+      </c>
+      <c r="O49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>291</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H51" t="s">
+        <v>290</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>291</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>298</v>
+      </c>
+      <c r="O51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" t="s">
+        <v>289</v>
+      </c>
+      <c r="H52" t="s">
+        <v>290</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>291</v>
+      </c>
+      <c r="K52" t="s">
+        <v>56</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>303</v>
+      </c>
+      <c r="O52" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>ID Number</t>
   </si>
@@ -104,24 +104,42 @@
     <t>http://www.bdbiosciences.com/us/p/555778</t>
   </si>
   <si>
+    <t>50316</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>555791 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>Ig, k light chain</t>
+  </si>
+  <si>
+    <t>G20-193</t>
+  </si>
+  <si>
+    <t>IgG1 κ</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555791</t>
+  </si>
+  <si>
     <t>50317</t>
   </si>
   <si>
-    <t>(1)</t>
-  </si>
-  <si>
     <t>555792 (View supplier product page)</t>
   </si>
   <si>
     <t>Ig Kappa Light Chain</t>
   </si>
   <si>
-    <t>G20-193</t>
-  </si>
-  <si>
-    <t>IgG1 κ</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -131,6 +149,120 @@
     <t>http://www.bdbiosciences.com/us/p/555792</t>
   </si>
   <si>
+    <t>50321</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>553439 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>500 μg</t>
+  </si>
+  <si>
+    <t>$230.00</t>
+  </si>
+  <si>
+    <t>11-26c.2a</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>FITC Rat Anti-Mouse IgD</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/553439</t>
+  </si>
+  <si>
+    <t>50329</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>eBioscience (Thermo Fisher Scientific)</t>
+  </si>
+  <si>
+    <t>12-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 μg</t>
+  </si>
+  <si>
+    <t>$103.00</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>eB121-15F9</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/12-5890-81.html?CID=AFLFF-12-5890-81</t>
+  </si>
+  <si>
+    <t>50328</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>11-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$82.75</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
+  </si>
+  <si>
+    <t>50322</t>
+  </si>
+  <si>
+    <t>11-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$93.00</t>
+  </si>
+  <si>
+    <t>11-26c (11-26)</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
+  </si>
+  <si>
+    <t>50324</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>51-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11-26c</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_51/51-5993.htm</t>
+  </si>
+  <si>
     <t>50319</t>
   </si>
   <si>
@@ -149,34 +281,28 @@
     <t>http://www.bdbiosciences.com/us/p/555779</t>
   </si>
   <si>
-    <t>50324</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>eBioscience (Thermo Fisher Scientific)</t>
-  </si>
-  <si>
-    <t>51-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>50 μg</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11-26c</t>
-  </si>
-  <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 647</t>
-  </si>
-  <si>
-    <t>http://www.ebioscience.com/ebioscience/specs/antibody_51/51-5993.htm</t>
+    <t>50325</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>12-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>IgA</t>
+  </si>
+  <si>
+    <t>11-44-2</t>
+  </si>
+  <si>
+    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
   </si>
   <si>
     <t>50320</t>
@@ -212,88 +338,22 @@
     <t>http://www.bdbiosciences.com/us/p/550826?utm_source=fluorofinder&amp;utm_medium=product_listing&amp;utm_campaign=pilot</t>
   </si>
   <si>
-    <t>50322</t>
-  </si>
-  <si>
-    <t>11-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$93.00</t>
-  </si>
-  <si>
-    <t>11-26c (11-26)</t>
-  </si>
-  <si>
-    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>http://www.thermofisher.com/antibody/product/11-5993-81.html?CID=AFLFF-11-5993-81</t>
-  </si>
-  <si>
-    <t>50316</t>
-  </si>
-  <si>
-    <t>555791 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>Ig, k light chain</t>
-  </si>
-  <si>
-    <t>FITC Mouse Anti-Human Ig, kappa Light Chain</t>
-  </si>
-  <si>
-    <t>http://www.bdbiosciences.com/us/p/555791</t>
-  </si>
-  <si>
-    <t>50321</t>
-  </si>
-  <si>
-    <t>(19)</t>
-  </si>
-  <si>
-    <t>553439 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>500 μg</t>
-  </si>
-  <si>
-    <t>$230.00</t>
-  </si>
-  <si>
-    <t>11-26c.2a</t>
-  </si>
-  <si>
-    <t>FITC Rat Anti-Mouse IgD</t>
-  </si>
-  <si>
-    <t>http://www.bdbiosciences.com/us/p/553439</t>
-  </si>
-  <si>
-    <t>50325</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>12-5994-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$115.00</t>
-  </si>
-  <si>
-    <t>IgA</t>
-  </si>
-  <si>
-    <t>11-44-2</t>
-  </si>
-  <si>
-    <t>Mouse IgA Monoclonal Antibody (11-44-2), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>http://www.thermofisher.com/antibody/product/12-5994-81.html?CID=AFLFF-12-5994-81</t>
+    <t>50323</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>12-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$104.00</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), PE, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
   </si>
   <si>
     <t>50326</t>
@@ -333,48 +393,6 @@
   </si>
   <si>
     <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
-  </si>
-  <si>
-    <t>50328</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>11-5890-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$82.75</t>
-  </si>
-  <si>
-    <t>IgM</t>
-  </si>
-  <si>
-    <t>eB121-15F9</t>
-  </si>
-  <si>
-    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), FITC, eBioscience™</t>
-  </si>
-  <si>
-    <t>http://www.thermofisher.com/antibody/product/11-5890-81.html?CID=AFLFF-11-5890-81</t>
-  </si>
-  <si>
-    <t>50323</t>
-  </si>
-  <si>
-    <t>(10)</t>
-  </si>
-  <si>
-    <t>12-5993-81 (View supplier product page)</t>
-  </si>
-  <si>
-    <t>$104.00</t>
-  </si>
-  <si>
-    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), PE, eBioscience™</t>
-  </si>
-  <si>
-    <t>http://www.thermofisher.com/antibody/product/12-5993-81.html?CID=AFLFF-12-5993-81</t>
   </si>
 </sst>
 </file>
@@ -419,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -536,22 +554,22 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -571,34 +589,34 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -621,54 +639,54 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
         <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -686,54 +704,54 @@
         <v>61</v>
       </c>
       <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -748,233 +766,233 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="O10" t="s">
         <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="s">
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="O11" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>104</v>
       </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -983,45 +1001,45 @@
         <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1030,57 +1048,104 @@
         <v>27</v>
       </c>
       <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
         <v>113</v>
-      </c>
-      <c r="O13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
         <v>36</v>
       </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" t="s">
-        <v>120</v>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="432">
   <si>
     <t>ID Number</t>
   </si>
@@ -393,6 +393,921 @@
   </si>
   <si>
     <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5f4023f65511d107e614c4394fa50c168e424888c0acc4f47e</t>
+  </si>
+  <si>
+    <t>50344</t>
+  </si>
+  <si>
+    <t>554061 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Streptavidin</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>All Species</t>
+  </si>
+  <si>
+    <t>Streptavidin-PE 500ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/554061.pdf</t>
+  </si>
+  <si>
+    <t>50345</t>
+  </si>
+  <si>
+    <t>554062 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$140.00</t>
+  </si>
+  <si>
+    <t>PE-Cy5</t>
+  </si>
+  <si>
+    <t>Streptavidin-PE-Cy5 100ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/554062.pdf</t>
+  </si>
+  <si>
+    <t>50340</t>
+  </si>
+  <si>
+    <t>554064 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$290.00</t>
+  </si>
+  <si>
+    <t>PerCP</t>
+  </si>
+  <si>
+    <t>Streptavidin-PerCP 100ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/554064.pdf</t>
+  </si>
+  <si>
+    <t>50341</t>
+  </si>
+  <si>
+    <t>340130 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>50 Tests</t>
+  </si>
+  <si>
+    <t>$157.00</t>
+  </si>
+  <si>
+    <t>Streptavidin PerCP 50 Tests RUO/GMP</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/is/tds/23-2501.pdf</t>
+  </si>
+  <si>
+    <t>50339</t>
+  </si>
+  <si>
+    <t>554060 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>Streptavidin-FITC 500ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/554060.pdf</t>
+  </si>
+  <si>
+    <t>50337</t>
+  </si>
+  <si>
+    <t>554063 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$190.00</t>
+  </si>
+  <si>
+    <t>APC-Cy7</t>
+  </si>
+  <si>
+    <t>Streptavidin-APC-Cy7 100ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/554063.pdf</t>
+  </si>
+  <si>
+    <t>50338</t>
+  </si>
+  <si>
+    <t>560797 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>V450</t>
+  </si>
+  <si>
+    <t>Streptavidin Horizon V450 100ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/560797.pdf</t>
+  </si>
+  <si>
+    <t>50343</t>
+  </si>
+  <si>
+    <t>349023 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$268.00</t>
+  </si>
+  <si>
+    <t>Streptavidin PE 100 Tests RUO/GMP</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/is/tds/23-1665.pdf</t>
+  </si>
+  <si>
+    <t>50342</t>
+  </si>
+  <si>
+    <t>551419 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$265.00</t>
+  </si>
+  <si>
+    <t>PerCP-Cy5.5</t>
+  </si>
+  <si>
+    <t>Streptavidin PerCP-Cy5.5 100ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/551419.pdf</t>
+  </si>
+  <si>
+    <t>50347</t>
+  </si>
+  <si>
+    <t>551487 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Texas Red</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/external_files/pm/doc/tds/ig_2step/live/web_enabled/1303RA_551487.pdf</t>
+  </si>
+  <si>
+    <t>50352</t>
+  </si>
+  <si>
+    <t>19-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Cy5</t>
+  </si>
+  <si>
+    <t>The streptavidin fluorochrome conjugates are commonly used in indirect staining protocols to detect biotinylated primary antibodies in flow cytometry. Streptavidin binds to biotin with high affinity.</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-cy5.htm</t>
+  </si>
+  <si>
+    <t>50355</t>
+  </si>
+  <si>
+    <t>45-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$249.00</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-antibody-percp-cy55.htm</t>
+  </si>
+  <si>
+    <t>50348</t>
+  </si>
+  <si>
+    <t>11-4317-87 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>250 μg</t>
+  </si>
+  <si>
+    <t>$69.00</t>
+  </si>
+  <si>
+    <t>FC, ICC</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-fitc.htm</t>
+  </si>
+  <si>
+    <t>50349</t>
+  </si>
+  <si>
+    <t>12-4317-87 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$79.00</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-pe.htm</t>
+  </si>
+  <si>
+    <t>50354</t>
+  </si>
+  <si>
+    <t>35-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Cy5.5</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_35/35-4317.htm</t>
+  </si>
+  <si>
+    <t>50353</t>
+  </si>
+  <si>
+    <t>25-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$229.00</t>
+  </si>
+  <si>
+    <t>PE-Cy7</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-antibody-pe-cy7.htm</t>
+  </si>
+  <si>
+    <t>50350</t>
+  </si>
+  <si>
+    <t>15-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$129.00</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-antibody-pe-cy5.htm</t>
+  </si>
+  <si>
+    <t>50351</t>
+  </si>
+  <si>
+    <t>17-4317-82 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$119.00</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/streptavidin-apc.htm</t>
+  </si>
+  <si>
+    <t>50346</t>
+  </si>
+  <si>
+    <t>(32)</t>
+  </si>
+  <si>
+    <t>557598 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Streptavidin-PE-Cy7 100ug</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/ds/pm/tds/557598.pdf</t>
+  </si>
+  <si>
+    <t>50357</t>
+  </si>
+  <si>
+    <t>50356</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>13-5890-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$72.75</t>
+  </si>
+  <si>
+    <t>Biotin</t>
+  </si>
+  <si>
+    <t>Mouse IgM Monoclonal Antibody (eB121-15F9), Biotin, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/13-5890-81.html?CID=AFLFF-13-5890-81</t>
+  </si>
+  <si>
+    <t>50359</t>
+  </si>
+  <si>
+    <t>50361</t>
+  </si>
+  <si>
+    <t>50363</t>
+  </si>
+  <si>
+    <t>50358</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>13-5993-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Mouse IgD Monoclonal Antibody (11-26c (11-26)), Biotin, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/13-5993-81.html?CID=AFLFF-13-5993-81</t>
+  </si>
+  <si>
+    <t>50360</t>
+  </si>
+  <si>
+    <t>13-5994-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>The 11-44-2 monoclonal antibody reacts with the alpha heavy chain of mouse IgA. It does not react with other classes of mouse immunoglobulin including IgD, IgG or IgM. IgA is expressed as a membrane-bound form as well as a soluble dimer. Fluorochrome con - -</t>
+  </si>
+  <si>
+    <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5f4f7adee1d451f98b094388c4d640a5dffb91aae1f90a6603</t>
+  </si>
+  <si>
+    <t>50362</t>
+  </si>
+  <si>
+    <t>13-5992-81 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$92.75</t>
+  </si>
+  <si>
+    <t>FC, ELISA</t>
+  </si>
+  <si>
+    <t>Mouse IgE Monoclonal Antibody (23G3), Biotin, eBioscience™</t>
+  </si>
+  <si>
+    <t>http://www.thermofisher.com/antibody/product/13-5992-81.html?CID=AFLFF-13-5992-81</t>
+  </si>
+  <si>
+    <t>50364</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>557354 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$300.00</t>
+  </si>
+  <si>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>1F4</t>
+  </si>
+  <si>
+    <t>IgM κ</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Rat CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/557354</t>
+  </si>
+  <si>
+    <t>50367</t>
+  </si>
+  <si>
+    <t>559975 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>G4.18</t>
+  </si>
+  <si>
+    <t>IgG3 κ</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/559975</t>
+  </si>
+  <si>
+    <t>50368</t>
+  </si>
+  <si>
+    <t>554832 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$285.00</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/554832</t>
+  </si>
+  <si>
+    <t>50369</t>
+  </si>
+  <si>
+    <t>554833 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>200 μg</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Rat CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/554833</t>
+  </si>
+  <si>
+    <t>50365</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>550353 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$165.00</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/550353</t>
+  </si>
+  <si>
+    <t>50372</t>
+  </si>
+  <si>
+    <t>555342 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$155.00</t>
+  </si>
+  <si>
+    <t>HIT3a</t>
+  </si>
+  <si>
+    <t>APC Mouse Anti-Human CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555342</t>
+  </si>
+  <si>
+    <t>50373</t>
+  </si>
+  <si>
+    <t>555341 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Cy5 Mouse Anti-Human CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555341</t>
+  </si>
+  <si>
+    <t>50366</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>557030 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>APC Mouse Anti-Rat CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/557030</t>
+  </si>
+  <si>
+    <t>50370</t>
+  </si>
+  <si>
+    <t>(47)</t>
+  </si>
+  <si>
+    <t>555339 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555339</t>
+  </si>
+  <si>
+    <t>50371</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>555340 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$130.00</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555340</t>
+  </si>
+  <si>
+    <t>50375</t>
+  </si>
+  <si>
+    <t>555276 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$207.00</t>
+  </si>
+  <si>
+    <t>17A2</t>
+  </si>
+  <si>
+    <t>IgG2b κ</t>
+  </si>
+  <si>
+    <t>PE-Cy5 Rat Anti-Mouse CD3 Molecular Complex</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555276</t>
+  </si>
+  <si>
+    <t>50374</t>
+  </si>
+  <si>
+    <t>(24)</t>
+  </si>
+  <si>
+    <t>552774 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$205.00</t>
+  </si>
+  <si>
+    <t>145-2C11</t>
+  </si>
+  <si>
+    <t>Armenian Hamster</t>
+  </si>
+  <si>
+    <t>PE-Cy7 Hamster Anti-Mouse CD3e</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/552774</t>
+  </si>
+  <si>
+    <t>50376</t>
+  </si>
+  <si>
+    <t>(20)</t>
+  </si>
+  <si>
+    <t>557832 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$308.00</t>
+  </si>
+  <si>
+    <t>SK7</t>
+  </si>
+  <si>
+    <t>APC-Cy7 Mouse Anti-Human CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/557832</t>
+  </si>
+  <si>
+    <t>50377</t>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>557851 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE-Cy7 Mouse Anti-Human CD3</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/557851</t>
+  </si>
+  <si>
+    <t>50381</t>
+  </si>
+  <si>
+    <t>(157)</t>
+  </si>
+  <si>
+    <t>17-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Hamster</t>
+  </si>
+  <si>
+    <t>IgG</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_17/17-0031.htm</t>
+  </si>
+  <si>
+    <t>50380</t>
+  </si>
+  <si>
+    <t>(87)</t>
+  </si>
+  <si>
+    <t>15-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_15/15-0031.htm</t>
+  </si>
+  <si>
+    <t>50382</t>
+  </si>
+  <si>
+    <t>(127)</t>
+  </si>
+  <si>
+    <t>25-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>CD3 epsilon</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_25/25-0031.htm</t>
+  </si>
+  <si>
+    <t>50384</t>
+  </si>
+  <si>
+    <t>(63)</t>
+  </si>
+  <si>
+    <t>53-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 488</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_53/53-0031.htm</t>
+  </si>
+  <si>
+    <t>50385</t>
+  </si>
+  <si>
+    <t>11-0037 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>OKT3</t>
+  </si>
+  <si>
+    <t>IgG2a</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_11/11-0037.htm</t>
+  </si>
+  <si>
+    <t>50383</t>
+  </si>
+  <si>
+    <t>35-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_35/35-0031.htm</t>
+  </si>
+  <si>
+    <t>50386</t>
+  </si>
+  <si>
+    <t>(18)</t>
+  </si>
+  <si>
+    <t>12-0037 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_12/12-0037.htm</t>
+  </si>
+  <si>
+    <t>50379</t>
+  </si>
+  <si>
+    <t>(151)</t>
+  </si>
+  <si>
+    <t>12-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_12/12-0031.htm</t>
+  </si>
+  <si>
+    <t>50378</t>
+  </si>
+  <si>
+    <t>(206)</t>
+  </si>
+  <si>
+    <t>11-0031 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_11/11-0031.htm</t>
+  </si>
+  <si>
+    <t>50387</t>
+  </si>
+  <si>
+    <t>56-0037 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 700</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_56/56-0037.htm</t>
+  </si>
+  <si>
+    <t>50388</t>
+  </si>
+  <si>
+    <t>57-0037 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Pacific Blue</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_57/57-0037.htm</t>
+  </si>
+  <si>
+    <t>50389</t>
+  </si>
+  <si>
+    <t>51-0037 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_51/51-0037.htm</t>
+  </si>
+  <si>
+    <t>50390</t>
+  </si>
+  <si>
+    <t>53-0037 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_53/53-0037.htm</t>
+  </si>
+  <si>
+    <t>50392</t>
+  </si>
+  <si>
+    <t>17-0038 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>UCHT1</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_17/17-0038.htm</t>
+  </si>
+  <si>
+    <t>50391</t>
+  </si>
+  <si>
+    <t>15-0038 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_15/15-0038.htm</t>
+  </si>
+  <si>
+    <t>50395</t>
+  </si>
+  <si>
+    <t>FAB100F (View supplier product page)</t>
+  </si>
+  <si>
+    <t>IgG1</t>
+  </si>
+  <si>
+    <t>Human CD3 epsilon Fluorescein MAb (Clone UCHT1)</t>
+  </si>
+  <si>
+    <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5fdc180a9a4773baebc1f807be338fb5c5196f24da4bc7a611</t>
+  </si>
+  <si>
+    <t>50394</t>
+  </si>
+  <si>
+    <t>FAB100A (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Human CD3 epsilon Allophycocyanin MAb (Clone UCHT1)</t>
+  </si>
+  <si>
+    <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5fd5ebf191eb9e4fa7fc15176a86dfc97052d43cac26642957</t>
+  </si>
+  <si>
+    <t>50393</t>
+  </si>
+  <si>
+    <t>(51)</t>
+  </si>
+  <si>
+    <t>25-0038 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>http://www.ebioscience.com/ebioscience/specs/antibody_25/25-0038.htm</t>
+  </si>
+  <si>
+    <t>50400</t>
+  </si>
+  <si>
+    <t>(54)</t>
+  </si>
+  <si>
+    <t>555349 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>$145.00</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>RPA-T4</t>
+  </si>
+  <si>
+    <t>APC Mouse Anti-Human CD4</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555349</t>
+  </si>
+  <si>
+    <t>50398</t>
+  </si>
+  <si>
+    <t>(85)</t>
+  </si>
+  <si>
+    <t>555346 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>FITC Mouse Anti-Human CD4</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555346</t>
+  </si>
+  <si>
+    <t>50399</t>
+  </si>
+  <si>
+    <t>(52)</t>
+  </si>
+  <si>
+    <t>555347 (View supplier product page)</t>
+  </si>
+  <si>
+    <t>PE Mouse Anti-Human CD4</t>
+  </si>
+  <si>
+    <t>http://www.bdbiosciences.com/us/p/555347</t>
+  </si>
+  <si>
+    <t>50397</t>
+  </si>
+  <si>
+    <t>FAB4841F (View supplier product page)</t>
+  </si>
+  <si>
+    <t>IgG2b λ</t>
+  </si>
+  <si>
+    <t>Mouse CD3 Fluorescein MAb (Clone 17A2) - -</t>
+  </si>
+  <si>
+    <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5fbbd8e5bd5a495558f9e6a89664fffaba0e6814aac649e0ce</t>
+  </si>
+  <si>
+    <t>50396</t>
+  </si>
+  <si>
+    <t>FAB100P (View supplier product page)</t>
+  </si>
+  <si>
+    <t>Human CD3 epsilon Phycoerythrin MAb (Clone UCHT1)</t>
+  </si>
+  <si>
+    <t>http://www.linscottsdirectory.com/ff/r/53616c7465645f5f356c20ca8e6470b3444fcf413146e8a917e766269f86e729</t>
   </si>
 </sst>
 </file>
@@ -437,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1148,6 +2063,3672 @@
         <v>126</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>138</v>
+      </c>
+      <c r="O28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>166</v>
+      </c>
+      <c r="O33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
+        <v>176</v>
+      </c>
+      <c r="L35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>177</v>
+      </c>
+      <c r="O35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" t="s">
+        <v>185</v>
+      </c>
+      <c r="L37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>186</v>
+      </c>
+      <c r="O38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M39" t="s">
+        <v>196</v>
+      </c>
+      <c r="N39" t="s">
+        <v>186</v>
+      </c>
+      <c r="O39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>186</v>
+      </c>
+      <c r="O40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" t="s">
+        <v>77</v>
+      </c>
+      <c r="O41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>186</v>
+      </c>
+      <c r="O42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L43" t="s">
+        <v>131</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" t="s">
+        <v>131</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>186</v>
+      </c>
+      <c r="O44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" t="s">
+        <v>209</v>
+      </c>
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>222</v>
+      </c>
+      <c r="O45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" t="s">
+        <v>77</v>
+      </c>
+      <c r="M46" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>229</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s">
+        <v>77</v>
+      </c>
+      <c r="M49" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" t="s">
+        <v>77</v>
+      </c>
+      <c r="O49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" t="s">
+        <v>77</v>
+      </c>
+      <c r="M50" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" t="s">
+        <v>77</v>
+      </c>
+      <c r="O50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>229</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>238</v>
+      </c>
+      <c r="O51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>242</v>
+      </c>
+      <c r="O52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" t="s">
+        <v>229</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" t="s">
+        <v>247</v>
+      </c>
+      <c r="N53" t="s">
+        <v>248</v>
+      </c>
+      <c r="O53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" t="s">
+        <v>254</v>
+      </c>
+      <c r="H54" t="s">
+        <v>255</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>256</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
+        <v>257</v>
+      </c>
+      <c r="O54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" t="s">
+        <v>262</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" t="s">
+        <v>257</v>
+      </c>
+      <c r="O55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" t="s">
+        <v>261</v>
+      </c>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" t="s">
+        <v>262</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
+        <v>257</v>
+      </c>
+      <c r="O56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H57" t="s">
+        <v>261</v>
+      </c>
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" t="s">
+        <v>42</v>
+      </c>
+      <c r="L57" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>271</v>
+      </c>
+      <c r="O57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
+        <v>276</v>
+      </c>
+      <c r="G58" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" t="s">
+        <v>255</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" t="s">
+        <v>256</v>
+      </c>
+      <c r="K58" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>271</v>
+      </c>
+      <c r="O58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" t="s">
+        <v>281</v>
+      </c>
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>105</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" t="s">
+        <v>282</v>
+      </c>
+      <c r="O59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G60" t="s">
+        <v>254</v>
+      </c>
+      <c r="H60" t="s">
+        <v>281</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>137</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" t="s">
+        <v>286</v>
+      </c>
+      <c r="O60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" t="s">
+        <v>255</v>
+      </c>
+      <c r="I61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" t="s">
+        <v>256</v>
+      </c>
+      <c r="K61" t="s">
+        <v>105</v>
+      </c>
+      <c r="L61" t="s">
+        <v>51</v>
+      </c>
+      <c r="M61" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" t="s">
+        <v>291</v>
+      </c>
+      <c r="O61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" t="s">
+        <v>254</v>
+      </c>
+      <c r="H62" t="s">
+        <v>281</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" t="s">
+        <v>296</v>
+      </c>
+      <c r="O62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>301</v>
+      </c>
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H63" t="s">
+        <v>281</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>42</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" t="s">
+        <v>302</v>
+      </c>
+      <c r="O63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G64" t="s">
+        <v>254</v>
+      </c>
+      <c r="H64" t="s">
+        <v>307</v>
+      </c>
+      <c r="I64" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" t="s">
+        <v>308</v>
+      </c>
+      <c r="K64" t="s">
+        <v>137</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" t="s">
+        <v>309</v>
+      </c>
+      <c r="O64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G65" t="s">
+        <v>254</v>
+      </c>
+      <c r="H65" t="s">
+        <v>315</v>
+      </c>
+      <c r="I65" t="s">
+        <v>316</v>
+      </c>
+      <c r="J65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" t="s">
+        <v>209</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
+        <v>317</v>
+      </c>
+      <c r="O65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>320</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>321</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" t="s">
+        <v>323</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" t="s">
+        <v>160</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" t="s">
+        <v>324</v>
+      </c>
+      <c r="O66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" t="s">
+        <v>323</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s">
+        <v>209</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" t="s">
+        <v>329</v>
+      </c>
+      <c r="O67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>331</v>
+      </c>
+      <c r="B68" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" t="s">
+        <v>315</v>
+      </c>
+      <c r="I68" t="s">
+        <v>334</v>
+      </c>
+      <c r="J68" t="s">
+        <v>335</v>
+      </c>
+      <c r="K68" t="s">
+        <v>105</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N68" t="s">
+        <v>77</v>
+      </c>
+      <c r="O68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>339</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" t="s">
+        <v>315</v>
+      </c>
+      <c r="I69" t="s">
+        <v>334</v>
+      </c>
+      <c r="J69" t="s">
+        <v>335</v>
+      </c>
+      <c r="K69" t="s">
+        <v>137</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" t="s">
+        <v>77</v>
+      </c>
+      <c r="O69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>343</v>
+      </c>
+      <c r="E70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" t="s">
+        <v>334</v>
+      </c>
+      <c r="J70" t="s">
+        <v>335</v>
+      </c>
+      <c r="K70" t="s">
+        <v>209</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
+        <v>79</v>
+      </c>
+      <c r="N70" t="s">
+        <v>77</v>
+      </c>
+      <c r="O70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s">
+        <v>344</v>
+      </c>
+      <c r="H71" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" t="s">
+        <v>334</v>
+      </c>
+      <c r="J71" t="s">
+        <v>335</v>
+      </c>
+      <c r="K71" t="s">
+        <v>349</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" t="s">
+        <v>77</v>
+      </c>
+      <c r="O71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" t="s">
+        <v>353</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" t="s">
+        <v>354</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" t="s">
+        <v>77</v>
+      </c>
+      <c r="O72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>357</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" t="s">
+        <v>315</v>
+      </c>
+      <c r="I73" t="s">
+        <v>334</v>
+      </c>
+      <c r="J73" t="s">
+        <v>335</v>
+      </c>
+      <c r="K73" t="s">
+        <v>204</v>
+      </c>
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" t="s">
+        <v>79</v>
+      </c>
+      <c r="N73" t="s">
+        <v>77</v>
+      </c>
+      <c r="O73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" t="s">
+        <v>353</v>
+      </c>
+      <c r="I74" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" t="s">
+        <v>354</v>
+      </c>
+      <c r="K74" t="s">
+        <v>42</v>
+      </c>
+      <c r="L74" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" t="s">
+        <v>79</v>
+      </c>
+      <c r="N74" t="s">
+        <v>77</v>
+      </c>
+      <c r="O74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" t="s">
+        <v>315</v>
+      </c>
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+      <c r="J75" t="s">
+        <v>335</v>
+      </c>
+      <c r="K75" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" t="s">
+        <v>79</v>
+      </c>
+      <c r="N75" t="s">
+        <v>77</v>
+      </c>
+      <c r="O75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>367</v>
+      </c>
+      <c r="B76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>369</v>
+      </c>
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s">
+        <v>344</v>
+      </c>
+      <c r="H76" t="s">
+        <v>315</v>
+      </c>
+      <c r="I76" t="s">
+        <v>334</v>
+      </c>
+      <c r="J76" t="s">
+        <v>335</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" t="s">
+        <v>79</v>
+      </c>
+      <c r="N76" t="s">
+        <v>77</v>
+      </c>
+      <c r="O76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>372</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" t="s">
+        <v>353</v>
+      </c>
+      <c r="I77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" t="s">
+        <v>354</v>
+      </c>
+      <c r="K77" t="s">
+        <v>373</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" t="s">
+        <v>79</v>
+      </c>
+      <c r="N77" t="s">
+        <v>77</v>
+      </c>
+      <c r="O77" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" t="s">
+        <v>353</v>
+      </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" t="s">
+        <v>354</v>
+      </c>
+      <c r="K78" t="s">
+        <v>377</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>79</v>
+      </c>
+      <c r="N78" t="s">
+        <v>77</v>
+      </c>
+      <c r="O78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" t="s">
+        <v>353</v>
+      </c>
+      <c r="I79" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" t="s">
+        <v>354</v>
+      </c>
+      <c r="K79" t="s">
+        <v>81</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" t="s">
+        <v>79</v>
+      </c>
+      <c r="N79" t="s">
+        <v>77</v>
+      </c>
+      <c r="O79" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>383</v>
+      </c>
+      <c r="E80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" t="s">
+        <v>353</v>
+      </c>
+      <c r="I80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" t="s">
+        <v>354</v>
+      </c>
+      <c r="K80" t="s">
+        <v>349</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>79</v>
+      </c>
+      <c r="N80" t="s">
+        <v>77</v>
+      </c>
+      <c r="O80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s">
+        <v>254</v>
+      </c>
+      <c r="H81" t="s">
+        <v>387</v>
+      </c>
+      <c r="I81" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" t="s">
+        <v>105</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M81" t="s">
+        <v>79</v>
+      </c>
+      <c r="N81" t="s">
+        <v>77</v>
+      </c>
+      <c r="O81" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>389</v>
+      </c>
+      <c r="B82" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>390</v>
+      </c>
+      <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" t="s">
+        <v>387</v>
+      </c>
+      <c r="I82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" t="s">
+        <v>137</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" t="s">
+        <v>79</v>
+      </c>
+      <c r="N82" t="s">
+        <v>77</v>
+      </c>
+      <c r="O82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s">
+        <v>344</v>
+      </c>
+      <c r="H83" t="s">
+        <v>387</v>
+      </c>
+      <c r="I83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" t="s">
+        <v>394</v>
+      </c>
+      <c r="K83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
+      <c r="M83" t="s">
+        <v>27</v>
+      </c>
+      <c r="N83" t="s">
+        <v>395</v>
+      </c>
+      <c r="O83" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>397</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s">
+        <v>344</v>
+      </c>
+      <c r="H84" t="s">
+        <v>387</v>
+      </c>
+      <c r="I84" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" t="s">
+        <v>394</v>
+      </c>
+      <c r="K84" t="s">
+        <v>105</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
+      <c r="M84" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" t="s">
+        <v>399</v>
+      </c>
+      <c r="O84" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>403</v>
+      </c>
+      <c r="E85" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" t="s">
+        <v>387</v>
+      </c>
+      <c r="I85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" t="s">
+        <v>36</v>
+      </c>
+      <c r="K85" t="s">
+        <v>209</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" t="s">
+        <v>79</v>
+      </c>
+      <c r="N85" t="s">
+        <v>77</v>
+      </c>
+      <c r="O85" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>405</v>
+      </c>
+      <c r="B86" t="s">
+        <v>406</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>407</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>408</v>
+      </c>
+      <c r="G86" t="s">
+        <v>409</v>
+      </c>
+      <c r="H86" t="s">
+        <v>410</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" t="s">
+        <v>411</v>
+      </c>
+      <c r="O86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>413</v>
+      </c>
+      <c r="B87" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>415</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" t="s">
+        <v>409</v>
+      </c>
+      <c r="H87" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M87" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" t="s">
+        <v>416</v>
+      </c>
+      <c r="O87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>418</v>
+      </c>
+      <c r="B88" t="s">
+        <v>419</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>301</v>
+      </c>
+      <c r="G88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H88" t="s">
+        <v>410</v>
+      </c>
+      <c r="I88" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" t="s">
+        <v>42</v>
+      </c>
+      <c r="L88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M88" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" t="s">
+        <v>421</v>
+      </c>
+      <c r="O88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" t="s">
+        <v>307</v>
+      </c>
+      <c r="I89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" t="s">
+        <v>425</v>
+      </c>
+      <c r="K89" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" t="s">
+        <v>426</v>
+      </c>
+      <c r="O89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>428</v>
+      </c>
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" t="s">
+        <v>429</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s">
+        <v>344</v>
+      </c>
+      <c r="H90" t="s">
+        <v>387</v>
+      </c>
+      <c r="I90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" t="s">
+        <v>394</v>
+      </c>
+      <c r="K90" t="s">
+        <v>42</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" t="s">
+        <v>430</v>
+      </c>
+      <c r="O90" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K91" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" t="s">
+        <v>37</v>
+      </c>
+      <c r="O91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" t="s">
+        <v>36</v>
+      </c>
+      <c r="K93" t="s">
+        <v>42</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
+      <c r="M93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" t="s">
+        <v>43</v>
+      </c>
+      <c r="O93" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExcellDocs/ResultPage.xlsx
+++ b/ExcellDocs/ResultPage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="432">
   <si>
     <t>ID Number</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5729,6 +5729,429 @@
         <v>44</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94" t="s">
+        <v>42</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" t="s">
+        <v>27</v>
+      </c>
+      <c r="N94" t="s">
+        <v>43</v>
+      </c>
+      <c r="O94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" t="s">
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M96" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" t="s">
+        <v>37</v>
+      </c>
+      <c r="O96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" t="s">
+        <v>26</v>
+      </c>
+      <c r="M97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" t="s">
+        <v>42</v>
+      </c>
+      <c r="L98" t="s">
+        <v>26</v>
+      </c>
+      <c r="M98" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" t="s">
+        <v>43</v>
+      </c>
+      <c r="O98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" t="s">
+        <v>37</v>
+      </c>
+      <c r="O99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" t="s">
+        <v>28</v>
+      </c>
+      <c r="O100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" t="s">
+        <v>26</v>
+      </c>
+      <c r="M101" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" t="s">
+        <v>43</v>
+      </c>
+      <c r="O101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" t="s">
+        <v>37</v>
+      </c>
+      <c r="O102" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
